--- a/Excel/2. Esign Main Register.xlsx
+++ b/Excel/2. Esign Main Register.xlsx
@@ -3911,10 +3911,10 @@
   <sheetPr/>
   <dimension ref="A1:EB152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A111" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A3" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B123" sqref="B123"/>
+      <selection pane="topRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
